--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/27_Düzce_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/27_Düzce_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6234F2E0-7705-4558-BC54-A85C3F7872D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2293AE8F-434E-4F33-8ECB-4CBD7F6440BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{C56EFB9E-4D63-4487-B357-E9A341C60CC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{E0449921-7190-4BE0-81F8-AD90D71B5538}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="136" r:id="rId1"/>
@@ -899,17 +899,17 @@
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{77E70964-D286-4EC1-9CAA-6E0976BDCDDA}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{AA10ED77-7609-4D2C-B919-AEFF75895B48}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{2840A250-9837-43DF-9FB2-C7EF31D2FBC7}"/>
-    <cellStyle name="Normal 2 4" xfId="4" xr:uid="{6EBD62C9-E2C8-4BAD-A308-65C2807A3544}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{D366D575-ABFE-4506-9255-D2B9F4D591C3}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{AFFB8C2F-BB41-4C60-B3B9-6239353663AD}"/>
-    <cellStyle name="Normal 3 2 2" xfId="7" xr:uid="{96391C72-D403-4E0C-B49F-A4FA24FD53D5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{8A7EFCC5-1B5A-4B21-AE6A-40CE38109188}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{45E8F46D-47D4-4478-8A4A-2703077BF4AA}"/>
-    <cellStyle name="Not 2" xfId="10" xr:uid="{688212E8-1E37-4DDA-9F46-73A60D87B803}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{3B25BC38-0493-4E16-80DB-089315464964}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{11CCC9C0-DE21-4964-AF4D-B11DC92D2586}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{48C1D2A9-46F4-4562-8C2C-65053B64A245}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{21AD1E24-BB8E-4D58-9C8F-4F994F001B1A}"/>
+    <cellStyle name="Normal 2 4" xfId="4" xr:uid="{7AD5DB1F-F7BB-4C27-84C4-CB689E6A0ECA}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{BD3065FF-3A1A-434B-8757-EBA358BC3F8B}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{E87BD268-7C83-4271-8B8B-EF7D16207E66}"/>
+    <cellStyle name="Normal 3 2 2" xfId="7" xr:uid="{05C92C28-0A42-4AAF-B1C8-5D6143FBFFA0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{864F9C58-B11C-4829-8A95-1029D1987BA3}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{3940A331-7F17-4154-AD89-4E9E43DA99E1}"/>
+    <cellStyle name="Not 2" xfId="10" xr:uid="{483AA0E1-B3A0-4AAE-94DB-94D214A2E1CC}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{11DC4F10-E134-45FA-830E-5B8AA30CD1FC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1279,7 +1279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A126C773-6866-407C-8060-8041312552E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24C27D4-A625-45CF-9F71-AB522D392A25}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2552,7 +2552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8729C13-B2A5-4161-97EF-A3CB06BF7F6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75FD8A7-03EB-43E3-B7D8-AC5CB449F871}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3827,7 +3827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52893DD4-56E2-4736-8728-162FD92E4B6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC89AE4-DBF7-4100-BDC7-17AB8F150601}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5098,7 +5098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804E7940-05F4-419E-BCF3-683745EA7537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B5560D-F3A8-4F02-A274-0911FF5B558D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6351,7 +6351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A7D275-14F7-418F-BE5F-AC8949C1B847}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D463AD8-FA06-47D6-A6A2-7593E96FEAC9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7624,7 +7624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D7D7FA-CC6E-4E7B-B5C1-BDA92427C202}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BDF414-AEBB-4A1F-B1CE-A65F24F135CA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8899,7 +8899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D826279-3204-4F15-84F8-9F6E0AB96E95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D27902C-1E96-4CB9-8AAD-13614EC4EE7E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10174,7 +10174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11D5330-9AFB-4AF4-AF5F-6E1255AF041D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55398418-B2D4-404D-AACF-392DD98500D4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11447,7 +11447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E227C0-7F5B-4352-8A80-D59A67E7A51B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F71D63F-7B6B-4B14-AEA2-81113AF234EA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12720,7 +12720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325A1FE2-A795-425E-AE6F-879DA3943159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888F43B2-33BF-4FDE-B7C1-38EE41878ABF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13995,7 +13995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A56E07B-7D50-42ED-8F41-62AFFF88A407}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E296DF-84B6-4A19-9A42-C330F07C753D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15268,7 +15268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBAE660-BC42-4CDA-872B-B6EB9B172FC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B2B8D0-E721-4DD4-BFC0-C8FCB5C3552D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
